--- a/output/fit_clients/fit_round_220.xlsx
+++ b/output/fit_clients/fit_round_220.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1673345158.3666</v>
+        <v>1975684903.282262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1124298514582038</v>
+        <v>0.1003094857328572</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03479017581311122</v>
+        <v>0.03396199742281963</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>836672530.8910339</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2580861992.870306</v>
+        <v>1716906325.551602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1358085296531102</v>
+        <v>0.1390696340495048</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04039597847639227</v>
+        <v>0.03944677576399289</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1290431126.439441</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3153826965.749375</v>
+        <v>4311824549.702469</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1463674841567363</v>
+        <v>0.1257753383487149</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02523598528952808</v>
+        <v>0.02498684338922082</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>79</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1576913437.095247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3410237057.270334</v>
+        <v>3772931841.118953</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06990916314035124</v>
+        <v>0.104308325131953</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0478772359120619</v>
+        <v>0.03314695229186277</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>84</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1705118571.3626</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2224412918.886449</v>
+        <v>2578035651.592865</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1082325332263629</v>
+        <v>0.1397250863233816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03537695411933978</v>
+        <v>0.04612672174110147</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1112206464.733041</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3068014110.373737</v>
+        <v>2097783350.197971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1012672179664321</v>
+        <v>0.08298636959217982</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04705941345027852</v>
+        <v>0.04571396794008491</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1534007013.524954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2906442673.288681</v>
+        <v>2554602774.924866</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1664466092314265</v>
+        <v>0.2017108003915646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02113149341454971</v>
+        <v>0.03111002613907838</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>71</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1453221384.577987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2088633058.011034</v>
+        <v>2050231908.678208</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1373246475714555</v>
+        <v>0.1853858675558</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03506577578481547</v>
+        <v>0.03726309465316936</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1044316543.304811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3822025559.587985</v>
+        <v>4429065187.203283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1314905446701114</v>
+        <v>0.1303441713434844</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04275372561375999</v>
+        <v>0.05093076759533589</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>92</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1911012787.873895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3803035805.168262</v>
+        <v>3660185980.909288</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1891467993143703</v>
+        <v>0.1531003215503138</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03223033687655465</v>
+        <v>0.03519453589398321</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>91</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1901517901.494813</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2585931479.602605</v>
+        <v>2425840902.102981</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1416649748457722</v>
+        <v>0.1690942123919985</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05025563055870904</v>
+        <v>0.04741507437275591</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>76</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1292965719.892438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3410585868.031234</v>
+        <v>4316863429.959119</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08221257122820406</v>
+        <v>0.1017622785585312</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02518892175098965</v>
+        <v>0.02788112415168305</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>74</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1705293018.868252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2521352158.425333</v>
+        <v>2983627108.131355</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1812026570223301</v>
+        <v>0.1669782138547404</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04024951809918557</v>
+        <v>0.03415817814824993</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1260676148.297893</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1670575146.848839</v>
+        <v>1551687404.144099</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07242415330060292</v>
+        <v>0.09912183937434287</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03734605135942833</v>
+        <v>0.04627190218945124</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>835287697.5863838</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2641589284.554919</v>
+        <v>2806738054.80573</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07845194093532561</v>
+        <v>0.09642915643441501</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03469534395800173</v>
+        <v>0.03576938925633004</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>38</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1320794660.428273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4657066015.554052</v>
+        <v>3706483338.298362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1598117451152808</v>
+        <v>0.17110758218847</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04489334612365926</v>
+        <v>0.05087836348361911</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>64</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2328533009.905279</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2632736762.208092</v>
+        <v>2867969074.517084</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1524951913627778</v>
+        <v>0.1178581696617611</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02852750344413817</v>
+        <v>0.02825794303151159</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>72</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1316368437.901947</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>891621861.888972</v>
+        <v>992638437.1392859</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1818095838689726</v>
+        <v>0.169397833684434</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02109319973079418</v>
+        <v>0.02484254874681367</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>445810933.7825775</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2216228300.950609</v>
+        <v>2382469664.949508</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1544800304610109</v>
+        <v>0.1463849340554954</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0313330992975149</v>
+        <v>0.02271282389394142</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1108114153.786513</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2010566405.071964</v>
+        <v>2361340205.236055</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06881682525421319</v>
+        <v>0.08808815279287051</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03889404976440098</v>
+        <v>0.04614477177009078</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1005283237.461987</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3739085393.520549</v>
+        <v>2971834220.70432</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09839034638931317</v>
+        <v>0.132431784782423</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04588328684863934</v>
+        <v>0.05388416050849043</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1869542714.013966</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1332683989.195893</v>
+        <v>1129235618.41932</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1187448905037054</v>
+        <v>0.1619515172276023</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03756762590462771</v>
+        <v>0.04741271558179275</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>666342008.717738</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3164560127.400472</v>
+        <v>3058999612.869975</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09822688175374578</v>
+        <v>0.1219291908190121</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02308311063728354</v>
+        <v>0.02765499132204762</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>64</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1582280087.864211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>989653691.8967724</v>
+        <v>1471952433.417923</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07484646525383057</v>
+        <v>0.08381166386616785</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03084657970256567</v>
+        <v>0.01946253425668543</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>494826912.2902204</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1263837430.773146</v>
+        <v>1225597577.491392</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09652782270185152</v>
+        <v>0.1215514292834332</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02469990562838074</v>
+        <v>0.03849030002953439</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>631918752.0833557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2870932321.223063</v>
+        <v>2933827461.687127</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1435602390738612</v>
+        <v>0.1021685388809449</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02622377080105892</v>
+        <v>0.01783201520558693</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>51</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1435466226.830263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3877583766.72194</v>
+        <v>2634605590.026777</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1306003574275416</v>
+        <v>0.1392042184504939</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03686154215703193</v>
+        <v>0.04766014048509341</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>71</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1938791970.733397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5867699789.612744</v>
+        <v>5639098618.816916</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1112555722944553</v>
+        <v>0.09942533474704129</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04306750618056071</v>
+        <v>0.04302987613541849</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>98</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2933849782.233641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1792388897.608756</v>
+        <v>1713314378.755903</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08677913515784832</v>
+        <v>0.1362496672631766</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03089849034822092</v>
+        <v>0.03215696521503598</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>896194462.6347604</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1007608830.02566</v>
+        <v>1263498563.301542</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09099198990737994</v>
+        <v>0.1115236384607341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05188676147003222</v>
+        <v>0.03242126476166427</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>503804411.7551889</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1522091094.39224</v>
+        <v>1661866708.520601</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09413697168118439</v>
+        <v>0.1049419979257789</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03369840712412889</v>
+        <v>0.03196963242586617</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>761045620.1166919</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2239768571.956721</v>
+        <v>2185872853.494087</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1512941753577825</v>
+        <v>0.1492580237473699</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05527596212090565</v>
+        <v>0.04310465840135794</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1119884346.327077</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1240596343.948084</v>
+        <v>1406742998.781018</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1124462287449938</v>
+        <v>0.1090635178627478</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02257749736251958</v>
+        <v>0.02820274442216917</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>620298170.3595406</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1209147459.276866</v>
+        <v>1001292247.073455</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09455108579390217</v>
+        <v>0.09130037203174565</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03025747331576215</v>
+        <v>0.04085656320828827</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>604573702.3354118</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2195846810.741237</v>
+        <v>1974118143.334429</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1761761075770104</v>
+        <v>0.120841319971544</v>
       </c>
       <c r="G36" t="n">
-        <v>0.028501428427066</v>
+        <v>0.0245615305532769</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1097923451.676313</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2149882302.267594</v>
+        <v>2250506496.605981</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0993663705348927</v>
+        <v>0.0753712904687298</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02884925838472312</v>
+        <v>0.0343872933902909</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>57</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1074941199.053294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1874219184.849642</v>
+        <v>2044607151.11776</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08589314359676575</v>
+        <v>0.1205479478547644</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03791176672062406</v>
+        <v>0.0249975134755818</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>937109588.8040098</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1397641375.66725</v>
+        <v>1647824034.296002</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1761249683632587</v>
+        <v>0.1170249874023499</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02830956109517503</v>
+        <v>0.0268782334184226</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>698820773.7861832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1694072765.031176</v>
+        <v>1629446540.98246</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1619686636322216</v>
+        <v>0.1052201944666983</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04703239584609033</v>
+        <v>0.04281662722798705</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>847036300.1209788</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2179298369.505108</v>
+        <v>2556317715.241773</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1036793109465685</v>
+        <v>0.1457008960324535</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02851876034435682</v>
+        <v>0.0462150215251783</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1089649241.413777</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3827792668.497357</v>
+        <v>3969147946.63472</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09420084502919643</v>
+        <v>0.1272826058210347</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03626013788426878</v>
+        <v>0.0377590598921002</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1913896351.671572</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2241988141.299165</v>
+        <v>2225029236.294504</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1519857723753891</v>
+        <v>0.1858507834791078</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02211518158922022</v>
+        <v>0.0163639564157433</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>76</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1120994145.249061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1477031722.567201</v>
+        <v>1712929053.695001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0989313424829609</v>
+        <v>0.09496010483935476</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03362027689963572</v>
+        <v>0.03640538420604199</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>738515863.2625484</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1857745058.401116</v>
+        <v>1855011493.304964</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1573408624023544</v>
+        <v>0.122513314203667</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04352656609822302</v>
+        <v>0.03751506533092687</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>928872505.7474618</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5046919501.435694</v>
+        <v>4371258064.299832</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1389647572851037</v>
+        <v>0.1694556588150564</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05573856397260294</v>
+        <v>0.05168582553264396</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>78</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2523459780.210826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4431267082.7399</v>
+        <v>3681129692.773596</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1525557022757126</v>
+        <v>0.1710824041055906</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05695380992451786</v>
+        <v>0.05817768216340776</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>59</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2215633564.931262</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3764685783.668764</v>
+        <v>2852695636.688004</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1077619066779239</v>
+        <v>0.07277178879116496</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02848210101088864</v>
+        <v>0.03218165109656415</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1882342939.85349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1865477545.875118</v>
+        <v>1885693834.454084</v>
       </c>
       <c r="F49" t="n">
-        <v>0.162823344937416</v>
+        <v>0.1707585903007142</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03681399027405309</v>
+        <v>0.04255275567029615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>932738748.1249324</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2730992687.135006</v>
+        <v>3853281895.862093</v>
       </c>
       <c r="F50" t="n">
-        <v>0.114070801433034</v>
+        <v>0.1148413639367945</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05064439432374687</v>
+        <v>0.04297268857553922</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>75</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1365496422.513736</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1184032396.697552</v>
+        <v>1054172257.017058</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1479502132021154</v>
+        <v>0.1195718943353105</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05143590291962661</v>
+        <v>0.03503738620600909</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>592016252.4827021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4617692420.078568</v>
+        <v>4831292706.289292</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09059857777121356</v>
+        <v>0.1363079021767059</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04621316876259082</v>
+        <v>0.05591049906771318</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>91</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2308846230.151619</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3234491871.42598</v>
+        <v>2529074583.173205</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1660072780692395</v>
+        <v>0.161545749610596</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03164671525307773</v>
+        <v>0.03418046308139867</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>63</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1617245951.962555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4938965979.396932</v>
+        <v>4336563188.466875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1670566982376152</v>
+        <v>0.1340290713560092</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03414906441078482</v>
+        <v>0.04662568623645198</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>71</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2469483127.497061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4413975906.164199</v>
+        <v>4913883218.052134</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1753123818658032</v>
+        <v>0.212656522115821</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02609619497719153</v>
+        <v>0.03160884060873821</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2206987946.22785</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1454338980.578631</v>
+        <v>1137015010.697571</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1319982910888675</v>
+        <v>0.1022685799785878</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03647435113715156</v>
+        <v>0.04912889238272419</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>727169539.3164202</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4410943923.147473</v>
+        <v>2821093813.449273</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1262437245327493</v>
+        <v>0.1658746366004862</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02732060590959569</v>
+        <v>0.02386961732464428</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>70</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2205472084.434729</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1183435374.554963</v>
+        <v>1357500491.126163</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1964395777626846</v>
+        <v>0.1267042521831617</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03100728148645899</v>
+        <v>0.0269087038460246</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>591717747.2952621</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3539746192.304523</v>
+        <v>3878194405.203738</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1191148595903203</v>
+        <v>0.08887708946529298</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04159090691766178</v>
+        <v>0.0411196932223097</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1769873094.288876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2601165859.833625</v>
+        <v>2344650819.570386</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1248029316167187</v>
+        <v>0.1819034631768125</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02880251514702219</v>
+        <v>0.02475119993285719</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1300582958.415508</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2961787440.729119</v>
+        <v>2151065391.746736</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1085513920424801</v>
+        <v>0.1310977231710001</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02323189905538393</v>
+        <v>0.02984248123844455</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>76</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1480893704.425704</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1446989215.543358</v>
+        <v>1368734531.292796</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1940079901570326</v>
+        <v>0.1824156009116456</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04214310681484566</v>
+        <v>0.03942523647570931</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>723494582.8270279</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4340137521.073065</v>
+        <v>3461473780.126122</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07901099974531176</v>
+        <v>0.0965601061096085</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03091338480999983</v>
+        <v>0.04605752542978808</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2170068807.745615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3477574393.625746</v>
+        <v>4520825094.712651</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1491247172572287</v>
+        <v>0.1855251252157126</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02921714256740105</v>
+        <v>0.03023038112643383</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>68</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1738787195.915487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4520384144.273308</v>
+        <v>4406895266.739274</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1697205595004155</v>
+        <v>0.1125714244631895</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02439777707287301</v>
+        <v>0.03116794730753934</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>79</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2260192059.659189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4292988218.956132</v>
+        <v>5316979042.794061</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1485094211490808</v>
+        <v>0.1098610544436604</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03163597970456927</v>
+        <v>0.04129648416742717</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>64</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2146494098.74182</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3172780527.833337</v>
+        <v>2698368902.898231</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0672902285079629</v>
+        <v>0.08654314039973159</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03846712194478271</v>
+        <v>0.0343128084822206</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1586390267.505716</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4572464319.858029</v>
+        <v>4767270842.734583</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369665290283102</v>
+        <v>0.1594386236150433</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03967256154658903</v>
+        <v>0.03148786753176513</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2286232190.392657</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2071585722.590423</v>
+        <v>2095581257.179225</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1587939283462129</v>
+        <v>0.1549630558763816</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05567367807205244</v>
+        <v>0.04142098509901165</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1035792875.467971</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2567951391.631554</v>
+        <v>3298548336.354884</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08926275847509797</v>
+        <v>0.06217628596268451</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03277394915566809</v>
+        <v>0.04017896434737527</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>63</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1283975644.680934</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4642775411.717303</v>
+        <v>4543814357.207694</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1246972338224848</v>
+        <v>0.1407143597242682</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02323060685075565</v>
+        <v>0.02586026873293273</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>80</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2321387784.856642</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1762486467.677634</v>
+        <v>2267359780.1836</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06634354672869815</v>
+        <v>0.09033303129843182</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05006949778080467</v>
+        <v>0.04521009745261621</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>881243218.4463583</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2442878238.829229</v>
+        <v>3447215853.416579</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07617058704736961</v>
+        <v>0.06995820058722041</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04116234076213648</v>
+        <v>0.04363428495306879</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>84</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1221439166.384099</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3177071565.57918</v>
+        <v>2547582026.938517</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1513051305245431</v>
+        <v>0.1174373222492634</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03433204923421895</v>
+        <v>0.03237615463633219</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>75</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1588535832.830655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2117353953.124556</v>
+        <v>2399576487.12189</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1208049333555958</v>
+        <v>0.1642658954034886</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02696399129690173</v>
+        <v>0.02622091325681756</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1058676929.700099</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3578022144.635955</v>
+        <v>5242805212.203378</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1205385216455578</v>
+        <v>0.08080210529777293</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03346517971294023</v>
+        <v>0.02102135199224233</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1789011039.35061</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2140119925.271008</v>
+        <v>2140300666.448696</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1833161977548451</v>
+        <v>0.1228241044607764</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02000133716106462</v>
+        <v>0.02705072967825046</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1070060044.830091</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3739178769.006201</v>
+        <v>3027009615.754874</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1039948809804288</v>
+        <v>0.1137937782709328</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0385399788206329</v>
+        <v>0.0534771502414385</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>77</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1869589368.901315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1431754964.957891</v>
+        <v>1601539416.252677</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1260481457642419</v>
+        <v>0.1289790413701454</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04065289693593155</v>
+        <v>0.02450504173742586</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>715877504.7548519</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3647666918.04774</v>
+        <v>4383620769.958679</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1022189929941953</v>
+        <v>0.06936006668438538</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0351789981868185</v>
+        <v>0.0291115772921039</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>46</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1823833440.949424</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4629111588.768672</v>
+        <v>3625701451.922993</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1076253934903034</v>
+        <v>0.1111809337830172</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0268105101442659</v>
+        <v>0.02176875651465329</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2314555780.947354</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4509798003.366677</v>
+        <v>4390172983.341863</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1338917580081763</v>
+        <v>0.1612055390915544</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02747725815548941</v>
+        <v>0.02552111786572939</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2254899012.983133</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1662689115.559979</v>
+        <v>2420281118.11655</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1167533630053424</v>
+        <v>0.1494408008548983</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03505761706860566</v>
+        <v>0.0279705105764122</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>831344501.0932511</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2069021581.513117</v>
+        <v>2297862210.039098</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1100307972012226</v>
+        <v>0.1208090016207451</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04345847485187878</v>
+        <v>0.03311654879188911</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1034510785.628334</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2532305211.39678</v>
+        <v>2291185139.865403</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1352176966423176</v>
+        <v>0.1709076546041456</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05396242027663123</v>
+        <v>0.05144301176975698</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>83</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1266152614.191936</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2233789234.785614</v>
+        <v>2743905785.546816</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1282507498188946</v>
+        <v>0.1157310262955557</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01975567074026868</v>
+        <v>0.02338253368099451</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1116894677.528141</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1027536964.981787</v>
+        <v>1468166342.123807</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1185090770507597</v>
+        <v>0.1341088272687231</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03874862701077744</v>
+        <v>0.04072654638225601</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>513768493.8746576</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2832351813.25801</v>
+        <v>3201706702.636199</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1306698113592721</v>
+        <v>0.1714728702988939</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03165352593170818</v>
+        <v>0.03893836195621758</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>87</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1416175920.485795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2431686226.674162</v>
+        <v>3413325298.783494</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1021442509371675</v>
+        <v>0.1597597677629049</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04031826584894384</v>
+        <v>0.03124962488036204</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1215843193.079278</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1747343829.867829</v>
+        <v>1744993849.582732</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1362424970702561</v>
+        <v>0.1050503857328403</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04090189236392566</v>
+        <v>0.04128839693751668</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>873671938.9213942</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2076413435.321167</v>
+        <v>1464861516.258913</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1912280834942789</v>
+        <v>0.1520233351778739</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05939112354634547</v>
+        <v>0.05422542060439733</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1038206679.718947</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2624079720.528051</v>
+        <v>2480954505.886692</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08059960918992512</v>
+        <v>0.0905544775403445</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03496284213008782</v>
+        <v>0.03404418993306311</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>56</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1312039853.615254</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4616597340.022738</v>
+        <v>3178723567.291012</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1381005899398395</v>
+        <v>0.1123026964699941</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05463299769749008</v>
+        <v>0.03426118779250697</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>70</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2308298630.756725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2247267453.820181</v>
+        <v>1824349194.956582</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1338657161022458</v>
+        <v>0.1019433629200134</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04121533987556252</v>
+        <v>0.02797217301331285</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1123633757.406756</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3099913617.631503</v>
+        <v>2229259432.3504</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031260182867997</v>
+        <v>0.08603055569228739</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04195445652440487</v>
+        <v>0.04055043069510936</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>54</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1549956801.245664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1997949675.311543</v>
+        <v>1863953620.826769</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09070164975596</v>
+        <v>0.08966205875584664</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03208896308167861</v>
+        <v>0.04501172626187173</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>998974824.8354205</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4979900070.20001</v>
+        <v>5172076480.091043</v>
       </c>
       <c r="F97" t="n">
-        <v>0.161655234521486</v>
+        <v>0.166567035607254</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02089518885940236</v>
+        <v>0.02565200030192438</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2489950170.273172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2391394240.521442</v>
+        <v>3395705052.961275</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1188715294911277</v>
+        <v>0.09119098822617074</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02114851278218721</v>
+        <v>0.0262039045797047</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>58</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1195697063.647729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3072464029.342046</v>
+        <v>3085966871.545915</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1060006396987039</v>
+        <v>0.0945331971983909</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02423331026569222</v>
+        <v>0.02430754278476037</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1536232005.897048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4260578524.707617</v>
+        <v>3444690647.681272</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1324213294518281</v>
+        <v>0.1383022535384879</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02495550691189097</v>
+        <v>0.02165892563067039</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>70</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2130289353.820474</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3079550473.852743</v>
+        <v>3389681142.210113</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2186523500183396</v>
+        <v>0.1962683186879728</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0429190494184461</v>
+        <v>0.03884438604580957</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>90</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1539775336.4566</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_220.xlsx
+++ b/output/fit_clients/fit_round_220.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1975684903.282262</v>
+        <v>2163784227.384023</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1003094857328572</v>
+        <v>0.108674826048234</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03396199742281963</v>
+        <v>0.04430305601093662</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1716906325.551602</v>
+        <v>2032226105.255423</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1390696340495048</v>
+        <v>0.1785315918265306</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03944677576399289</v>
+        <v>0.0400368849930587</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4311824549.702469</v>
+        <v>4716617383.784852</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1257753383487149</v>
+        <v>0.1213463887233638</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02498684338922082</v>
+        <v>0.03716094324028468</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3772931841.118953</v>
+        <v>4176730839.396395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.104308325131953</v>
+        <v>0.08723798019791243</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03314695229186277</v>
+        <v>0.04076203393116747</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2578035651.592865</v>
+        <v>2650923133.536176</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1397250863233816</v>
+        <v>0.1409368860795682</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04612672174110147</v>
+        <v>0.0517113032538292</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2097783350.197971</v>
+        <v>2979494489.566929</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08298636959217982</v>
+        <v>0.1015565705117812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04571396794008491</v>
+        <v>0.04785715983260246</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2554602774.924866</v>
+        <v>2872409565.966872</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2017108003915646</v>
+        <v>0.1332561060281229</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03111002613907838</v>
+        <v>0.0265352502312124</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2050231908.678208</v>
+        <v>1563980040.298768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1853858675558</v>
+        <v>0.1976399618391275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03726309465316936</v>
+        <v>0.02989215601979728</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4429065187.203283</v>
+        <v>5856092030.539448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1303441713434844</v>
+        <v>0.1753895622411271</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05093076759533589</v>
+        <v>0.04295518677703943</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3660185980.909288</v>
+        <v>2704169249.655682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1531003215503138</v>
+        <v>0.1340124726871208</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03519453589398321</v>
+        <v>0.03746760455359185</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2425840902.102981</v>
+        <v>2433568254.20704</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1690942123919985</v>
+        <v>0.1672736590175634</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04741507437275591</v>
+        <v>0.04462898978335308</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4316863429.959119</v>
+        <v>4544154841.432388</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1017622785585312</v>
+        <v>0.06187436070096387</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02788112415168305</v>
+        <v>0.02656742300951093</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2983627108.131355</v>
+        <v>3833053404.463387</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1669782138547404</v>
+        <v>0.1781714587488251</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03415817814824993</v>
+        <v>0.027942828610572</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1551687404.144099</v>
+        <v>1416705237.459938</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09912183937434287</v>
+        <v>0.08412381374174754</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04627190218945124</v>
+        <v>0.03996929209147772</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2806738054.80573</v>
+        <v>2564168319.79233</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09642915643441501</v>
+        <v>0.08028759322647024</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03576938925633004</v>
+        <v>0.03324192443124984</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3706483338.298362</v>
+        <v>3257365489.821747</v>
       </c>
       <c r="F17" t="n">
-        <v>0.17110758218847</v>
+        <v>0.1656517666410735</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05087836348361911</v>
+        <v>0.05183982344920027</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2867969074.517084</v>
+        <v>3468661618.375721</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1178581696617611</v>
+        <v>0.1746778886685318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02825794303151159</v>
+        <v>0.02159241361292622</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>992638437.1392859</v>
+        <v>968352902.6118675</v>
       </c>
       <c r="F19" t="n">
-        <v>0.169397833684434</v>
+        <v>0.1660270137753116</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02484254874681367</v>
+        <v>0.01722241267580706</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2382469664.949508</v>
+        <v>1904550839.514635</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1463849340554954</v>
+        <v>0.1233155500509433</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02271282389394142</v>
+        <v>0.0289602191103247</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2361340205.236055</v>
+        <v>2577549701.135984</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08808815279287051</v>
+        <v>0.09320852027182594</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04614477177009078</v>
+        <v>0.03131366015186891</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2971834220.70432</v>
+        <v>3197943410.162868</v>
       </c>
       <c r="F22" t="n">
-        <v>0.132431784782423</v>
+        <v>0.1037155428115347</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05388416050849043</v>
+        <v>0.03706569962698152</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1129235618.41932</v>
+        <v>1312221970.543549</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1619515172276023</v>
+        <v>0.1155296306784264</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04741271558179275</v>
+        <v>0.03399350391737362</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3058999612.869975</v>
+        <v>3642561116.249669</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1219291908190121</v>
+        <v>0.1036945873310748</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02765499132204762</v>
+        <v>0.02525886844027489</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1471952433.417923</v>
+        <v>1472301156.028165</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08381166386616785</v>
+        <v>0.1045017991592552</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01946253425668543</v>
+        <v>0.02345794405989392</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1225597577.491392</v>
+        <v>1036264328.929067</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1215514292834332</v>
+        <v>0.07516414927955616</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03849030002953439</v>
+        <v>0.03843060833030691</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2933827461.687127</v>
+        <v>3152167213.619439</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1021685388809449</v>
+        <v>0.1532970522791761</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01783201520558693</v>
+        <v>0.02150099063205753</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2634605590.026777</v>
+        <v>3277670776.682364</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1392042184504939</v>
+        <v>0.1029005326792009</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04766014048509341</v>
+        <v>0.04069360327181744</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5639098618.816916</v>
+        <v>4452869791.13386</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09942533474704129</v>
+        <v>0.1110275689998123</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04302987613541849</v>
+        <v>0.03157788558491879</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1713314378.755903</v>
+        <v>1913316556.410129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1362496672631766</v>
+        <v>0.1231771587802502</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03215696521503598</v>
+        <v>0.03632888366379817</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1263498563.301542</v>
+        <v>1488875779.444394</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1115236384607341</v>
+        <v>0.09008461734424179</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03242126476166427</v>
+        <v>0.0386896034448988</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1661866708.520601</v>
+        <v>1599566828.027754</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049419979257789</v>
+        <v>0.1023872152115603</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03196963242586617</v>
+        <v>0.02444043451824265</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2185872853.494087</v>
+        <v>2246098247.194602</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1492580237473699</v>
+        <v>0.1281861701606812</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04310465840135794</v>
+        <v>0.05423353639758961</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1406742998.781018</v>
+        <v>1456395954.933808</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1090635178627478</v>
+        <v>0.09272088730168446</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02820274442216917</v>
+        <v>0.02211894263188359</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1001292247.073455</v>
+        <v>1067980941.76283</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09130037203174565</v>
+        <v>0.0878041680182961</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04085656320828827</v>
+        <v>0.04286504594504336</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1974118143.334429</v>
+        <v>2454264138.521133</v>
       </c>
       <c r="F36" t="n">
-        <v>0.120841319971544</v>
+        <v>0.1308995669058508</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0245615305532769</v>
+        <v>0.02162104396031249</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2250506496.605981</v>
+        <v>2542416581.261411</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0753712904687298</v>
+        <v>0.09370250654317559</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0343872933902909</v>
+        <v>0.03609338297137989</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2044607151.11776</v>
+        <v>1383070399.392167</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1205479478547644</v>
+        <v>0.08791731844702015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0249975134755818</v>
+        <v>0.02615160621532501</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1647824034.296002</v>
+        <v>2010273813.026289</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1170249874023499</v>
+        <v>0.1313928846085591</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0268782334184226</v>
+        <v>0.0220076172871135</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1629446540.98246</v>
+        <v>1376760489.838457</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1052201944666983</v>
+        <v>0.1059050532437417</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04281662722798705</v>
+        <v>0.03880607023225559</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2556317715.241773</v>
+        <v>2430909729.007616</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1457008960324535</v>
+        <v>0.1338004530644829</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0462150215251783</v>
+        <v>0.04441186060156791</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3969147946.63472</v>
+        <v>3076660697.464097</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1272826058210347</v>
+        <v>0.120451251689781</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0377590598921002</v>
+        <v>0.03572116440359662</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2225029236.294504</v>
+        <v>2250799689.972497</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1858507834791078</v>
+        <v>0.1690705202848299</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0163639564157433</v>
+        <v>0.01849745801287296</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1712929053.695001</v>
+        <v>2288609572.576192</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09496010483935476</v>
+        <v>0.06565186435520376</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03640538420604199</v>
+        <v>0.03698300256227668</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1855011493.304964</v>
+        <v>2369843890.500773</v>
       </c>
       <c r="F45" t="n">
-        <v>0.122513314203667</v>
+        <v>0.1447588020659937</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03751506533092687</v>
+        <v>0.03652124426916453</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4371258064.299832</v>
+        <v>5427584118.188008</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1694556588150564</v>
+        <v>0.1583593196267744</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05168582553264396</v>
+        <v>0.04469072364541894</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3681129692.773596</v>
+        <v>3815192633.103934</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1710824041055906</v>
+        <v>0.1594784356045774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05817768216340776</v>
+        <v>0.03724581510054737</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2852695636.688004</v>
+        <v>3824235513.787227</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07277178879116496</v>
+        <v>0.068823363821418</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03218165109656415</v>
+        <v>0.02573532737450889</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1885693834.454084</v>
+        <v>1752845424.824817</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1707585903007142</v>
+        <v>0.1566886364107086</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04255275567029615</v>
+        <v>0.02778624850045843</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3853281895.862093</v>
+        <v>2703152376.982319</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1148413639367945</v>
+        <v>0.1763853105672945</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04297268857553922</v>
+        <v>0.04651353428740579</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1054172257.017058</v>
+        <v>1468545260.658338</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1195718943353105</v>
+        <v>0.1768763561018084</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03503738620600909</v>
+        <v>0.04769340085200124</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4831292706.289292</v>
+        <v>3926884864.856921</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1363079021767059</v>
+        <v>0.1057377113616331</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05591049906771318</v>
+        <v>0.05272618096725333</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2529074583.173205</v>
+        <v>3147682204.914217</v>
       </c>
       <c r="F53" t="n">
-        <v>0.161545749610596</v>
+        <v>0.1716814482208608</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03418046308139867</v>
+        <v>0.02745246760631504</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4336563188.466875</v>
+        <v>4232842179.465562</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1340290713560092</v>
+        <v>0.120903766709759</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04662568623645198</v>
+        <v>0.03332196415736851</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4913883218.052134</v>
+        <v>4793629863.034991</v>
       </c>
       <c r="F55" t="n">
-        <v>0.212656522115821</v>
+        <v>0.2172755780523555</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03160884060873821</v>
+        <v>0.03038953052955914</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1137015010.697571</v>
+        <v>1575446516.253548</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1022685799785878</v>
+        <v>0.1323700375205966</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04912889238272419</v>
+        <v>0.03509129414994952</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2821093813.449273</v>
+        <v>3727419966.41982</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1658746366004862</v>
+        <v>0.1576464273954465</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02386961732464428</v>
+        <v>0.02655651797402537</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1357500491.126163</v>
+        <v>1634821930.073757</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1267042521831617</v>
+        <v>0.1489908392312314</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0269087038460246</v>
+        <v>0.02903344520745617</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3878194405.203738</v>
+        <v>4405381271.870495</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08887708946529298</v>
+        <v>0.08968254123145869</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0411196932223097</v>
+        <v>0.03175476551212301</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2344650819.570386</v>
+        <v>2278781078.860445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1819034631768125</v>
+        <v>0.1340677946418288</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02475119993285719</v>
+        <v>0.0227811130940071</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2151065391.746736</v>
+        <v>2371510219.074605</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1310977231710001</v>
+        <v>0.113436688822455</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02984248123844455</v>
+        <v>0.02021723438996351</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1368734531.292796</v>
+        <v>1457316604.557635</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1824156009116456</v>
+        <v>0.1881768807350873</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03942523647570931</v>
+        <v>0.04266429965115081</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3461473780.126122</v>
+        <v>5192743907.982562</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0965601061096085</v>
+        <v>0.09697905080025201</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04605752542978808</v>
+        <v>0.03574109510265151</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4520825094.712651</v>
+        <v>3709341743.3385</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1855251252157126</v>
+        <v>0.1501432695024305</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03023038112643383</v>
+        <v>0.02177923814724053</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4406895266.739274</v>
+        <v>4936084170.024282</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1125714244631895</v>
+        <v>0.1447403217811441</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03116794730753934</v>
+        <v>0.02449615969297243</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5316979042.794061</v>
+        <v>4237052051.750665</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1098610544436604</v>
+        <v>0.141255541044567</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04129648416742717</v>
+        <v>0.03443471545540065</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2698368902.898231</v>
+        <v>3422339420.834526</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08654314039973159</v>
+        <v>0.06851918957167591</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0343128084822206</v>
+        <v>0.03879510059451177</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4767270842.734583</v>
+        <v>5395215680.259517</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1594386236150433</v>
+        <v>0.1524532691273701</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03148786753176513</v>
+        <v>0.03771142898824088</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2095581257.179225</v>
+        <v>2221739234.95902</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1549630558763816</v>
+        <v>0.1263910857263858</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04142098509901165</v>
+        <v>0.04907536233916347</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3298548336.354884</v>
+        <v>2657786857.309396</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06217628596268451</v>
+        <v>0.08291837603009601</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04017896434737527</v>
+        <v>0.03031275036878284</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4543814357.207694</v>
+        <v>4407414788.871474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1407143597242682</v>
+        <v>0.1563310476963095</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02586026873293273</v>
+        <v>0.02983406474356295</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2267359780.1836</v>
+        <v>1699688644.615589</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09033303129843182</v>
+        <v>0.1041231242565945</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04521009745261621</v>
+        <v>0.04435550446781359</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3447215853.416579</v>
+        <v>2857725576.632742</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06995820058722041</v>
+        <v>0.07759387014756003</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04363428495306879</v>
+        <v>0.03420693984209221</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2547582026.938517</v>
+        <v>3494657638.317276</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1174373222492634</v>
+        <v>0.1301194763845193</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03237615463633219</v>
+        <v>0.02859656984251948</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2399576487.12189</v>
+        <v>1654722930.133172</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1642658954034886</v>
+        <v>0.1287450200326186</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02622091325681756</v>
+        <v>0.03552651654926378</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5242805212.203378</v>
+        <v>4402738963.689735</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08080210529777293</v>
+        <v>0.1119727373084513</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02102135199224233</v>
+        <v>0.02969073335414437</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2140300666.448696</v>
+        <v>1401717298.494661</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1228241044607764</v>
+        <v>0.1436664236637324</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02705072967825046</v>
+        <v>0.02376866319256165</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3027009615.754874</v>
+        <v>2953819506.643295</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1137937782709328</v>
+        <v>0.1249675652030334</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0534771502414385</v>
+        <v>0.03499325744979612</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1601539416.252677</v>
+        <v>1524037569.43619</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1289790413701454</v>
+        <v>0.1445372297138995</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02450504173742586</v>
+        <v>0.03044061680682208</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4383620769.958679</v>
+        <v>5036135720.873108</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06936006668438538</v>
+        <v>0.09547792854887757</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0291115772921039</v>
+        <v>0.02591731788911772</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3625701451.922993</v>
+        <v>3767181147.36009</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1111809337830172</v>
+        <v>0.1147121096697142</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02176875651465329</v>
+        <v>0.02496872584091663</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4390172983.341863</v>
+        <v>3775722371.617067</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1612055390915544</v>
+        <v>0.1734505891990329</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02552111786572939</v>
+        <v>0.01860897797625233</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2420281118.11655</v>
+        <v>1810765348.137432</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1494408008548983</v>
+        <v>0.1535896708707911</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0279705105764122</v>
+        <v>0.03199641311318221</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2297862210.039098</v>
+        <v>2553148895.92979</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208090016207451</v>
+        <v>0.07390095511649131</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03311654879188911</v>
+        <v>0.03665140484886871</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2291185139.865403</v>
+        <v>3245946952.397126</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1709076546041456</v>
+        <v>0.1443105293167688</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05144301176975698</v>
+        <v>0.05655794103926715</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2743905785.546816</v>
+        <v>2394084157.271575</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1157310262955557</v>
+        <v>0.1555533674079078</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02338253368099451</v>
+        <v>0.02733208152722147</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1468166342.123807</v>
+        <v>936843382.9276547</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1341088272687231</v>
+        <v>0.1314332582258978</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04072654638225601</v>
+        <v>0.03629343916812308</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3201706702.636199</v>
+        <v>2871182311.502271</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1714728702988939</v>
+        <v>0.163522810219031</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03893836195621758</v>
+        <v>0.02881155861657047</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3413325298.783494</v>
+        <v>3308096963.053984</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1597597677629049</v>
+        <v>0.1096655966793741</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03124962488036204</v>
+        <v>0.02617326478264234</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1744993849.582732</v>
+        <v>2147250146.475996</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1050503857328403</v>
+        <v>0.1305060357905942</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04128839693751668</v>
+        <v>0.04916886475627502</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1464861516.258913</v>
+        <v>1841556502.490103</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1520233351778739</v>
+        <v>0.1509269918476977</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05422542060439733</v>
+        <v>0.05647976848423174</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2480954505.886692</v>
+        <v>2723141157.227952</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0905544775403445</v>
+        <v>0.07239433097998568</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03404418993306311</v>
+        <v>0.04623887620486002</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3178723567.291012</v>
+        <v>3743794994.400555</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1123026964699941</v>
+        <v>0.1374177178428349</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03426118779250697</v>
+        <v>0.03310315429276561</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1824349194.956582</v>
+        <v>2294653134.573804</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1019433629200134</v>
+        <v>0.1241687507643563</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02797217301331285</v>
+        <v>0.03828173006621161</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2229259432.3504</v>
+        <v>2032698115.510201</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08603055569228739</v>
+        <v>0.09364381085327053</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04055043069510936</v>
+        <v>0.03814537370665055</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1863953620.826769</v>
+        <v>1817145226.069946</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08966205875584664</v>
+        <v>0.1318914561971665</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04501172626187173</v>
+        <v>0.03975281381855326</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5172076480.091043</v>
+        <v>3732350638.876013</v>
       </c>
       <c r="F97" t="n">
-        <v>0.166567035607254</v>
+        <v>0.1456742716788179</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02565200030192438</v>
+        <v>0.02478496749203345</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3395705052.961275</v>
+        <v>2868180072.741915</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09119098822617074</v>
+        <v>0.08421672922815336</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0262039045797047</v>
+        <v>0.02055729102341659</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3085966871.545915</v>
+        <v>3148216572.113534</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0945331971983909</v>
+        <v>0.1304506762458179</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02430754278476037</v>
+        <v>0.03043837566499472</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3444690647.681272</v>
+        <v>3019538573.730712</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1383022535384879</v>
+        <v>0.1341576650466209</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02165892563067039</v>
+        <v>0.02557637518283059</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3389681142.210113</v>
+        <v>2320535656.110695</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1962683186879728</v>
+        <v>0.2214595088326576</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03884438604580957</v>
+        <v>0.0375805802267103</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_220.xlsx
+++ b/output/fit_clients/fit_round_220.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2163784227.384023</v>
+        <v>2520731429.301251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108674826048234</v>
+        <v>0.08495655747970762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04430305601093662</v>
+        <v>0.03519853720457194</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2032226105.255423</v>
+        <v>2048644004.164091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1785315918265306</v>
+        <v>0.1285202631412151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0400368849930587</v>
+        <v>0.04581467127651875</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4716617383.784852</v>
+        <v>4328638014.296072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1213463887233638</v>
+        <v>0.1529436153797736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03716094324028468</v>
+        <v>0.03689697863321369</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>120</v>
+      </c>
+      <c r="J4" t="n">
+        <v>219</v>
+      </c>
+      <c r="K4" t="n">
+        <v>111.6087022436303</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4176730839.396395</v>
+        <v>3567955671.950699</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08723798019791243</v>
+        <v>0.08949750847583349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04076203393116747</v>
+        <v>0.04867495740398829</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>90</v>
+      </c>
+      <c r="J5" t="n">
+        <v>219</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97.76993314581073</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2650923133.536176</v>
+        <v>2165165396.646384</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1409368860795682</v>
+        <v>0.1186714181005543</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0517113032538292</v>
+        <v>0.03976205688329461</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2979494489.566929</v>
+        <v>2661264625.369125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015565705117812</v>
+        <v>0.06219603713957658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04785715983260246</v>
+        <v>0.03782282954116269</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2872409565.966872</v>
+        <v>2786743389.702226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1332561060281229</v>
+        <v>0.1418584737062376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0265352502312124</v>
+        <v>0.03116271829160193</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>214</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1563980040.298768</v>
+        <v>2125845108.289158</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1976399618391275</v>
+        <v>0.1249331276437521</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02989215601979728</v>
+        <v>0.02416292768844101</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5856092030.539448</v>
+        <v>5561451005.690581</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1753895622411271</v>
+        <v>0.1921927362888919</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04295518677703943</v>
+        <v>0.03324378031872089</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>201</v>
+      </c>
+      <c r="J10" t="n">
+        <v>220</v>
+      </c>
+      <c r="K10" t="n">
+        <v>120.4788815499433</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2704169249.655682</v>
+        <v>3417299257.375788</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1340124726871208</v>
+        <v>0.1665689021377388</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03746760455359185</v>
+        <v>0.03518472324330216</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>219</v>
+      </c>
+      <c r="K11" t="n">
+        <v>83.01167330733924</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2433568254.20704</v>
+        <v>3122526615.922113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1672736590175634</v>
+        <v>0.173870152032133</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04462898978335308</v>
+        <v>0.04333742677740536</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4544154841.432388</v>
+        <v>5116253437.430791</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06187436070096387</v>
+        <v>0.1004489816795307</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02656742300951093</v>
+        <v>0.02391158444815649</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>111</v>
+      </c>
+      <c r="J13" t="n">
+        <v>219</v>
+      </c>
+      <c r="K13" t="n">
+        <v>111.3886225020712</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3833053404.463387</v>
+        <v>3356045584.249682</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1781714587488251</v>
+        <v>0.1240229706716347</v>
       </c>
       <c r="G14" t="n">
-        <v>0.027942828610572</v>
+        <v>0.02780918242534229</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1416705237.459938</v>
+        <v>1329082991.253973</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08412381374174754</v>
+        <v>0.08512429944441066</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03996929209147772</v>
+        <v>0.04380209538221005</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2564168319.79233</v>
+        <v>1793249791.100938</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08028759322647024</v>
+        <v>0.1097622129030249</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03324192443124984</v>
+        <v>0.04484866348390604</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3257365489.821747</v>
+        <v>4444242122.238953</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1656517666410735</v>
+        <v>0.1624131839797585</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05183982344920027</v>
+        <v>0.03575934217707378</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>106</v>
+      </c>
+      <c r="J17" t="n">
+        <v>219</v>
+      </c>
+      <c r="K17" t="n">
+        <v>104.5705274270799</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3468661618.375721</v>
+        <v>2623864846.008149</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1746778886685318</v>
+        <v>0.1523018227341536</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02159241361292622</v>
+        <v>0.02124850620283375</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>57</v>
+      </c>
+      <c r="J18" t="n">
+        <v>217</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>968352902.6118675</v>
+        <v>963519349.920565</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1660270137753116</v>
+        <v>0.1841686715969316</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01722241267580706</v>
+        <v>0.02660340756530929</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1904550839.514635</v>
+        <v>1901403100.845149</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1233155500509433</v>
+        <v>0.128530759354884</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0289602191103247</v>
+        <v>0.02915524498170109</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2577549701.135984</v>
+        <v>2499249007.50265</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09320852027182594</v>
+        <v>0.09767974431364614</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03131366015186891</v>
+        <v>0.04515683755357983</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3197943410.162868</v>
+        <v>2908003938.742085</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1037155428115347</v>
+        <v>0.1376510496494549</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03706569962698152</v>
+        <v>0.04750832434738227</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>56</v>
+      </c>
+      <c r="J22" t="n">
+        <v>218</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1312221970.543549</v>
+        <v>1427990088.12062</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1155296306784264</v>
+        <v>0.1308514909832397</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03399350391737362</v>
+        <v>0.04682673029002094</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3642561116.249669</v>
+        <v>4091086136.155766</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1036945873310748</v>
+        <v>0.111126113230598</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02525886844027489</v>
+        <v>0.03677594706862828</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>69</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1472301156.028165</v>
+        <v>1318756823.459362</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1045017991592552</v>
+        <v>0.1218760998420542</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02345794405989392</v>
+        <v>0.02400527636432094</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1036264328.929067</v>
+        <v>1051671586.698927</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07516414927955616</v>
+        <v>0.1128176915873391</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03843060833030691</v>
+        <v>0.03012348214843634</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3152167213.619439</v>
+        <v>3504830974.079389</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1532970522791761</v>
+        <v>0.1141333943994871</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02150099063205753</v>
+        <v>0.01914262782912532</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>87</v>
+      </c>
+      <c r="J27" t="n">
+        <v>220</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3277670776.682364</v>
+        <v>2590204789.315228</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1029005326792009</v>
+        <v>0.09516858484490699</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04069360327181744</v>
+        <v>0.0427574242692477</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>45</v>
+      </c>
+      <c r="J28" t="n">
+        <v>218</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4452869791.13386</v>
+        <v>3901645766.703199</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1110275689998123</v>
+        <v>0.1044216486204026</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03157788558491879</v>
+        <v>0.03593468740444172</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>209</v>
+      </c>
+      <c r="J29" t="n">
+        <v>220</v>
+      </c>
+      <c r="K29" t="n">
+        <v>111.9544290804905</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1913316556.410129</v>
+        <v>1868758474.834821</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1231771587802502</v>
+        <v>0.08600821067164967</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03632888366379817</v>
+        <v>0.0362546493906511</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1488875779.444394</v>
+        <v>1055858638.365159</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09008461734424179</v>
+        <v>0.08556630131503443</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0386896034448988</v>
+        <v>0.04089424288802772</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1599566828.027754</v>
+        <v>1553732868.819313</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1023872152115603</v>
+        <v>0.09664183442146353</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02444043451824265</v>
+        <v>0.0251758392605186</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2246098247.194602</v>
+        <v>2956590988.442201</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1281861701606812</v>
+        <v>0.1970826025488341</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05423353639758961</v>
+        <v>0.0379285591988236</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1456395954.933808</v>
+        <v>1288428135.200118</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09272088730168446</v>
+        <v>0.1006770495251514</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02211894263188359</v>
+        <v>0.0199682263664491</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1067980941.76283</v>
+        <v>1292532437.67401</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0878041680182961</v>
+        <v>0.1005760765762363</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04286504594504336</v>
+        <v>0.04310320963807642</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2454264138.521133</v>
+        <v>3099372688.715014</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1308995669058508</v>
+        <v>0.1133268346159634</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02162104396031249</v>
+        <v>0.02593494184608486</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2542416581.261411</v>
+        <v>2860553338.510183</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09370250654317559</v>
+        <v>0.07014454339526144</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03609338297137989</v>
+        <v>0.03401073105241798</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1383070399.392167</v>
+        <v>1699707992.998797</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08791731844702015</v>
+        <v>0.08158114393859379</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02615160621532501</v>
+        <v>0.03123327092546245</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2010273813.026289</v>
+        <v>2007132936.169974</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1313928846085591</v>
+        <v>0.1473458648322911</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0220076172871135</v>
+        <v>0.03213487375997273</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1376760489.838457</v>
+        <v>1780895164.266698</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1059050532437417</v>
+        <v>0.1167026712660493</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03880607023225559</v>
+        <v>0.04620347970038344</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2430909729.007616</v>
+        <v>2281092553.734003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1338004530644829</v>
+        <v>0.16107530446981</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04441186060156791</v>
+        <v>0.04303491549920919</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3076660697.464097</v>
+        <v>3740935952.239172</v>
       </c>
       <c r="F42" t="n">
-        <v>0.120451251689781</v>
+        <v>0.09602860909591743</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03572116440359662</v>
+        <v>0.04208637702241754</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>87</v>
+      </c>
+      <c r="J42" t="n">
+        <v>220</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2250799689.972497</v>
+        <v>2190578460.342149</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1690705202848299</v>
+        <v>0.178967186285039</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01849745801287296</v>
+        <v>0.01881696068871836</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2288609572.576192</v>
+        <v>1617877492.066592</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06565186435520376</v>
+        <v>0.1008393154481024</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03698300256227668</v>
+        <v>0.02896491598951194</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2369843890.500773</v>
+        <v>1575127099.152731</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1447588020659937</v>
+        <v>0.1797499119249697</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03652124426916453</v>
+        <v>0.03552197690255363</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5427584118.188008</v>
+        <v>3754052480.421572</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1583593196267744</v>
+        <v>0.1777140640737803</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04469072364541894</v>
+        <v>0.03689764249831696</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>125</v>
+      </c>
+      <c r="J46" t="n">
+        <v>220</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3815192633.103934</v>
+        <v>4134362811.847399</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1594784356045774</v>
+        <v>0.1342292151438405</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03724581510054737</v>
+        <v>0.04762795181645029</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>99</v>
+      </c>
+      <c r="J47" t="n">
+        <v>219</v>
+      </c>
+      <c r="K47" t="n">
+        <v>93.24851285463083</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3824235513.787227</v>
+        <v>3369672353.949582</v>
       </c>
       <c r="F48" t="n">
-        <v>0.068823363821418</v>
+        <v>0.09773467211995487</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02573532737450889</v>
+        <v>0.02412891945333973</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>109</v>
+      </c>
+      <c r="J48" t="n">
+        <v>219</v>
+      </c>
+      <c r="K48" t="n">
+        <v>77.42830872001912</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1752845424.824817</v>
+        <v>1201979007.417246</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1566886364107086</v>
+        <v>0.1484473820369819</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02778624850045843</v>
+        <v>0.04210083750469211</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2703152376.982319</v>
+        <v>3762487952.911917</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1763853105672945</v>
+        <v>0.1137776650899808</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04651353428740579</v>
+        <v>0.04647351958834575</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>71</v>
+      </c>
+      <c r="J50" t="n">
+        <v>219</v>
+      </c>
+      <c r="K50" t="n">
+        <v>94.64500515202569</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1468545260.658338</v>
+        <v>1076345162.419896</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1768763561018084</v>
+        <v>0.1297418355465928</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04769340085200124</v>
+        <v>0.04001123520778735</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3926884864.856921</v>
+        <v>4697489286.923553</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1057377113616331</v>
+        <v>0.1006303482206368</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05272618096725333</v>
+        <v>0.04627536764175604</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>147</v>
+      </c>
+      <c r="J52" t="n">
+        <v>220</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3147682204.914217</v>
+        <v>3356191571.589972</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1716814482208608</v>
+        <v>0.1341833134082517</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02745246760631504</v>
+        <v>0.0325671660973925</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>29</v>
+      </c>
+      <c r="J53" t="n">
+        <v>217</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4232842179.465562</v>
+        <v>3584985383.451546</v>
       </c>
       <c r="F54" t="n">
-        <v>0.120903766709759</v>
+        <v>0.1094327375122228</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03332196415736851</v>
+        <v>0.04443538350338789</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>116</v>
+      </c>
+      <c r="J54" t="n">
+        <v>220</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4793629863.034991</v>
+        <v>3287080548.164374</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2172755780523555</v>
+        <v>0.2191860090185655</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03038953052955914</v>
+        <v>0.02144328217864927</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>99</v>
+      </c>
+      <c r="J55" t="n">
+        <v>219</v>
+      </c>
+      <c r="K55" t="n">
+        <v>69.33987282325781</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1575446516.253548</v>
+        <v>1354407853.278692</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1323700375205966</v>
+        <v>0.1417542317795349</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03509129414994952</v>
+        <v>0.05827748871834917</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3727419966.41982</v>
+        <v>3368299879.99582</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1576464273954465</v>
+        <v>0.1826824411653706</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02655651797402537</v>
+        <v>0.02422707963390847</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>85</v>
+      </c>
+      <c r="J57" t="n">
+        <v>220</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1634821930.073757</v>
+        <v>1436284144.818339</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1489908392312314</v>
+        <v>0.1319748483636179</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02903344520745617</v>
+        <v>0.02732537558731413</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4405381271.870495</v>
+        <v>3996610545.429197</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08968254123145869</v>
+        <v>0.09692026052678097</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03175476551212301</v>
+        <v>0.04593599625884155</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>106</v>
+      </c>
+      <c r="J59" t="n">
+        <v>220</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2278781078.860445</v>
+        <v>2715786192.968143</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1340677946418288</v>
+        <v>0.1251208549120616</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0227811130940071</v>
+        <v>0.03056972726155594</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="n">
+        <v>51.45755849007662</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2371510219.074605</v>
+        <v>2283729001.760727</v>
       </c>
       <c r="F61" t="n">
-        <v>0.113436688822455</v>
+        <v>0.1729843183600371</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02021723438996351</v>
+        <v>0.03108900267612823</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1457316604.557635</v>
+        <v>1782905060.424382</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1881768807350873</v>
+        <v>0.1435026116281905</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04266429965115081</v>
+        <v>0.03672312226585731</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5192743907.982562</v>
+        <v>3530913813.521568</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09697905080025201</v>
+        <v>0.1055516282368984</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03574109510265151</v>
+        <v>0.0422842345715934</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>107</v>
+      </c>
+      <c r="J63" t="n">
+        <v>219</v>
+      </c>
+      <c r="K63" t="n">
+        <v>77.42801399605969</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3709341743.3385</v>
+        <v>5434151097.505798</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1501432695024305</v>
+        <v>0.1411236395395735</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02177923814724053</v>
+        <v>0.02544711258888556</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>108</v>
+      </c>
+      <c r="J64" t="n">
+        <v>220</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4936084170.024282</v>
+        <v>5066493330.778817</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1447403217811441</v>
+        <v>0.1236321736250583</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02449615969297243</v>
+        <v>0.02827490271499131</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>174</v>
+      </c>
+      <c r="J65" t="n">
+        <v>220</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4237052051.750665</v>
+        <v>3718401470.482993</v>
       </c>
       <c r="F66" t="n">
-        <v>0.141255541044567</v>
+        <v>0.1126920670620889</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03443471545540065</v>
+        <v>0.03899082662618374</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>108</v>
+      </c>
+      <c r="J66" t="n">
+        <v>220</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3422339420.834526</v>
+        <v>2480253075.395586</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06851918957167591</v>
+        <v>0.1030226889137564</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03879510059451177</v>
+        <v>0.03492897050516025</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5395215680.259517</v>
+        <v>5307668274.376692</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1524532691273701</v>
+        <v>0.1170611265550942</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03771142898824088</v>
+        <v>0.03639401085800285</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>111</v>
+      </c>
+      <c r="J68" t="n">
+        <v>219</v>
+      </c>
+      <c r="K68" t="n">
+        <v>111.2138942912188</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2221739234.95902</v>
+        <v>1765504647.930971</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1263910857263858</v>
+        <v>0.1431706944412423</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04907536233916347</v>
+        <v>0.05019443669465826</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2657786857.309396</v>
+        <v>2925723221.905642</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08291837603009601</v>
+        <v>0.07209002472963577</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03031275036878284</v>
+        <v>0.0309391726585353</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4407414788.871474</v>
+        <v>4390840261.359067</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1563310476963095</v>
+        <v>0.1636216745402949</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02983406474356295</v>
+        <v>0.03276635938636924</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>168</v>
+      </c>
+      <c r="J71" t="n">
+        <v>220</v>
+      </c>
+      <c r="K71" t="n">
+        <v>114.257075940176</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1699688644.615589</v>
+        <v>2267288703.586455</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1041231242565945</v>
+        <v>0.06914411527826352</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04435550446781359</v>
+        <v>0.04561325557880506</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2857725576.632742</v>
+        <v>2888682459.259208</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07759387014756003</v>
+        <v>0.08429462126835437</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03420693984209221</v>
+        <v>0.03532718067010652</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3494657638.317276</v>
+        <v>3256998283.890701</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1301194763845193</v>
+        <v>0.1487706293214512</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02859656984251948</v>
+        <v>0.0280226419250121</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1654722930.133172</v>
+        <v>2207169075.795281</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1287450200326186</v>
+        <v>0.1221250965214607</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03552651654926378</v>
+        <v>0.03792353287362851</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4402738963.689735</v>
+        <v>4263632195.7954</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1119727373084513</v>
+        <v>0.09257646368885827</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02969073335414437</v>
+        <v>0.02159787387469843</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>101</v>
+      </c>
+      <c r="J76" t="n">
+        <v>220</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1401717298.494661</v>
+        <v>1832671546.816318</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1436664236637324</v>
+        <v>0.1143947913677251</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02376866319256165</v>
+        <v>0.02724889059163654</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2953819506.643295</v>
+        <v>4478505781.828596</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1249675652030334</v>
+        <v>0.1284798989093971</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03499325744979612</v>
+        <v>0.04628771045336998</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>110</v>
+      </c>
+      <c r="J78" t="n">
+        <v>220</v>
+      </c>
+      <c r="K78" t="n">
+        <v>114.3619698258636</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1524037569.43619</v>
+        <v>1404386356.218951</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1445372297138995</v>
+        <v>0.1249354130814318</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03044061680682208</v>
+        <v>0.03171039357364611</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5036135720.873108</v>
+        <v>5063909102.838294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09547792854887757</v>
+        <v>0.09599843613048205</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02591731788911772</v>
+        <v>0.03123622713523687</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>107</v>
+      </c>
+      <c r="J80" t="n">
+        <v>219</v>
+      </c>
+      <c r="K80" t="n">
+        <v>84.38400781943938</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3767181147.36009</v>
+        <v>4249494108.787574</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1147121096697142</v>
+        <v>0.1300036116930273</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02496872584091663</v>
+        <v>0.02122090880576554</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>101</v>
+      </c>
+      <c r="J81" t="n">
+        <v>219</v>
+      </c>
+      <c r="K81" t="n">
+        <v>98.20780720459121</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3775722371.617067</v>
+        <v>4800018384.536635</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1734505891990329</v>
+        <v>0.164024641550322</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01860897797625233</v>
+        <v>0.02499659976914453</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>164</v>
+      </c>
+      <c r="J82" t="n">
+        <v>220</v>
+      </c>
+      <c r="K82" t="n">
+        <v>118.3049597577809</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1810765348.137432</v>
+        <v>2088099732.66172</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1535896708707911</v>
+        <v>0.147563631182495</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03199641311318221</v>
+        <v>0.0286775168864235</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2553148895.92979</v>
+        <v>2414925813.726148</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07390095511649131</v>
+        <v>0.08339107387550704</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03665140484886871</v>
+        <v>0.0369308847278726</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3245946952.397126</v>
+        <v>2482332984.427072</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1443105293167688</v>
+        <v>0.1800431035556843</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05655794103926715</v>
+        <v>0.04775878447141204</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2394084157.271575</v>
+        <v>2036276463.698322</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1555533674079078</v>
+        <v>0.161471062867045</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02733208152722147</v>
+        <v>0.02113633003280409</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>936843382.9276547</v>
+        <v>1316820329.957259</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1314332582258978</v>
+        <v>0.142965561049014</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03629343916812308</v>
+        <v>0.03646985460366006</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2871182311.502271</v>
+        <v>2766758326.851822</v>
       </c>
       <c r="F88" t="n">
-        <v>0.163522810219031</v>
+        <v>0.1751682761580353</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02881155861657047</v>
+        <v>0.0311325735214354</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3308096963.053984</v>
+        <v>3361404460.761663</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1096655966793741</v>
+        <v>0.1434228618153083</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02617326478264234</v>
+        <v>0.03391479395648433</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>220</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2147250146.475996</v>
+        <v>1358054293.003968</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1305060357905942</v>
+        <v>0.1143297459699359</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04916886475627502</v>
+        <v>0.05381359777591994</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1841556502.490103</v>
+        <v>1548790078.763978</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1509269918476977</v>
+        <v>0.1831304753703659</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05647976848423174</v>
+        <v>0.05646521695674511</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2723141157.227952</v>
+        <v>2468505559.920997</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07239433097998568</v>
+        <v>0.09623613329181294</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04623887620486002</v>
+        <v>0.03385347002621641</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3743794994.400555</v>
+        <v>4016710487.942795</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1374177178428349</v>
+        <v>0.1198639400078807</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03310315429276561</v>
+        <v>0.03865247248294737</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>98</v>
+      </c>
+      <c r="J93" t="n">
+        <v>220</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2294653134.573804</v>
+        <v>1692081581.999556</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1241687507643563</v>
+        <v>0.1575469691903885</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03828173006621161</v>
+        <v>0.02901241611615299</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2032698115.510201</v>
+        <v>2583903641.322552</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09364381085327053</v>
+        <v>0.1114085465494933</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03814537370665055</v>
+        <v>0.04471594961732093</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1817145226.069946</v>
+        <v>2182761192.285287</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1318914561971665</v>
+        <v>0.1128400669319471</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03975281381855326</v>
+        <v>0.03706150037559099</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3732350638.876013</v>
+        <v>3929017253.078218</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1456742716788179</v>
+        <v>0.1466636027760565</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02478496749203345</v>
+        <v>0.01995986263799791</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>106</v>
+      </c>
+      <c r="J97" t="n">
+        <v>220</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2868180072.741915</v>
+        <v>3054820895.674836</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08421672922815336</v>
+        <v>0.08594975475612841</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02055729102341659</v>
+        <v>0.02283282927477595</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3148216572.113534</v>
+        <v>2468940815.3113</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1304506762458179</v>
+        <v>0.1011150894634187</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03043837566499472</v>
+        <v>0.02195601853432542</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3019538573.730712</v>
+        <v>3862985173.259061</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1341576650466209</v>
+        <v>0.1174304087805982</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02557637518283059</v>
+        <v>0.02020823172416877</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>92</v>
+      </c>
+      <c r="J100" t="n">
+        <v>219</v>
+      </c>
+      <c r="K100" t="n">
+        <v>95.83148483316671</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2320535656.110695</v>
+        <v>2787185983.384693</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2214595088326576</v>
+        <v>0.2115308342591169</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0375805802267103</v>
+        <v>0.03799795211595848</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
